--- a/data/league_data/spain/18/spain_passing.xlsx
+++ b/data/league_data/spain/18/spain_passing.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4714C71B-B6E8-4140-B3EA-65EC8CEB5A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C8CA5B-FF2F-9346-8F58-DC6F633EEFBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="579">
   <si>
     <t>Rk</t>
   </si>
@@ -712,9 +712,6 @@
     <t>Riza Durmisi</t>
   </si>
   <si>
-    <t>Nacho</t>
-  </si>
-  <si>
     <t>Sergio Asenjo</t>
   </si>
   <si>
@@ -1754,12 +1751,18 @@
   </si>
   <si>
     <t>Bruno Gama</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2620,14 +2623,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="AG59" sqref="AG59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
@@ -2657,7 +2660,7 @@
     <col min="30" max="30" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2841,7 +2844,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2933,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3025,7 +3028,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3117,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3209,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3301,7 +3304,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3393,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3485,7 +3488,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3577,7 +3580,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3669,7 +3672,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3761,7 +3764,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3853,7 +3856,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3945,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4037,7 +4040,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4129,7 +4132,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4221,7 +4224,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4313,7 +4316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4497,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4589,7 +4592,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4681,7 +4684,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4773,7 +4776,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4865,7 +4868,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4957,7 +4960,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5049,7 +5052,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5141,7 +5144,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5233,7 +5236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5325,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5417,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5509,7 +5512,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5601,7 +5604,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5693,7 +5696,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5785,7 +5788,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5877,7 +5880,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5969,7 +5972,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6061,7 +6064,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6153,7 +6156,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6245,7 +6248,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6337,7 +6340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6429,7 +6432,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6521,7 +6524,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6613,7 +6616,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6705,7 +6708,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6797,7 +6800,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6889,7 +6892,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6981,7 +6984,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7073,7 +7076,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7165,7 +7168,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7257,7 +7260,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7349,7 +7352,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7441,7 +7444,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7533,7 +7536,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7625,7 +7628,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7717,7 +7720,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7809,7 +7812,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7901,7 +7904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7993,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8085,7 +8088,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8177,7 +8180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8269,7 +8272,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8361,7 +8364,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8453,7 +8456,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8545,7 +8548,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8637,7 +8640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8729,7 +8732,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -8821,7 +8824,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -8913,7 +8916,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9005,7 +9008,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9097,12 +9100,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>134</v>
+        <v>578</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>21</v>
@@ -9189,7 +9192,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9281,7 +9284,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9373,7 +9376,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9465,7 +9468,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -9557,7 +9560,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -9649,7 +9652,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9741,7 +9744,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -9833,7 +9836,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -9925,7 +9928,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10017,7 +10020,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10109,7 +10112,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10201,7 +10204,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10293,7 +10296,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10385,7 +10388,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10477,7 +10480,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10569,7 +10572,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10661,7 +10664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -10753,7 +10756,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -10845,7 +10848,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -10937,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -11029,7 +11032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -11121,7 +11124,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -11213,7 +11216,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -11305,7 +11308,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -11397,7 +11400,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -11489,7 +11492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -11581,7 +11584,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -11673,7 +11676,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -11765,7 +11768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -11857,7 +11860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -11949,7 +11952,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -12041,7 +12044,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -12133,7 +12136,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -12225,7 +12228,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -12317,7 +12320,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -12409,7 +12412,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -12501,7 +12504,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -12593,7 +12596,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -12685,7 +12688,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -12777,7 +12780,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -12869,7 +12872,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -12961,7 +12964,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -13053,7 +13056,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="114" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -13145,7 +13148,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -13237,7 +13240,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -13329,7 +13332,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="117" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -13421,7 +13424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -13513,7 +13516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -13605,7 +13608,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -13697,7 +13700,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -13789,7 +13792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -13881,7 +13884,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="123" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -13973,7 +13976,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="124" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -14065,7 +14068,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="125" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -14157,7 +14160,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -14249,7 +14252,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -14341,7 +14344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -14433,7 +14436,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -14525,7 +14528,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -14617,7 +14620,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -14709,7 +14712,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -14801,7 +14804,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -14893,7 +14896,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -14985,7 +14988,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -15077,7 +15080,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="136" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -15169,7 +15172,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="137" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -15261,7 +15264,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -15353,7 +15356,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="139" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -15445,7 +15448,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="140" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -15537,7 +15540,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="141" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -15629,7 +15632,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="142" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -15721,7 +15724,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -15813,7 +15816,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -15905,7 +15908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -15997,7 +16000,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -16089,7 +16092,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="147" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -16181,7 +16184,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -16273,7 +16276,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -16365,7 +16368,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="150" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -16457,7 +16460,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="151" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -16549,7 +16552,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="152" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -16641,7 +16644,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="153" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -16733,7 +16736,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -16825,7 +16828,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="155" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -16917,7 +16920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -17009,7 +17012,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="157" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -17101,12 +17104,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="158" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>230</v>
+        <v>577</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>21</v>
@@ -17193,12 +17196,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="159" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>21</v>
@@ -17285,12 +17288,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>21</v>
@@ -17377,15 +17380,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="161" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>22</v>
@@ -17469,12 +17472,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>62</v>
@@ -17561,15 +17564,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="163" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C163" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>37</v>
@@ -17653,12 +17656,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>21</v>
@@ -17745,12 +17748,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="165" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>21</v>
@@ -17837,12 +17840,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="166" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>57</v>
@@ -17929,12 +17932,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="167" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>21</v>
@@ -18021,12 +18024,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>21</v>
@@ -18113,12 +18116,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>127</v>
@@ -18205,12 +18208,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="170" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>21</v>
@@ -18297,12 +18300,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="171" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>21</v>
@@ -18389,12 +18392,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>103</v>
@@ -18481,12 +18484,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="173" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>21</v>
@@ -18573,12 +18576,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>85</v>
@@ -18665,12 +18668,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="175" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>62</v>
@@ -18757,12 +18760,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="176" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>21</v>
@@ -18849,12 +18852,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="177" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>21</v>
@@ -18941,12 +18944,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="178" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>21</v>
@@ -19033,12 +19036,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="179" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>21</v>
@@ -19125,12 +19128,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="180" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>21</v>
@@ -19217,12 +19220,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="181" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>57</v>
@@ -19309,12 +19312,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>21</v>
@@ -19401,12 +19404,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="183" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>21</v>
@@ -19493,12 +19496,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="184" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>21</v>
@@ -19585,12 +19588,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="185" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>21</v>
@@ -19677,12 +19680,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="186" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>21</v>
@@ -19769,15 +19772,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="187" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C187" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>45</v>
@@ -19861,12 +19864,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="188" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>57</v>
@@ -19953,12 +19956,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="189" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>21</v>
@@ -20045,15 +20048,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="190" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>75</v>
@@ -20137,12 +20140,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="191" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>21</v>
@@ -20229,12 +20232,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="192" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>21</v>
@@ -20321,12 +20324,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="193" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>85</v>
@@ -20413,12 +20416,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>21</v>
@@ -20505,12 +20508,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>21</v>
@@ -20597,12 +20600,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="196" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>21</v>
@@ -20689,18 +20692,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>78</v>
@@ -20781,12 +20784,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="198" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>57</v>
@@ -20873,12 +20876,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="199" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>21</v>
@@ -20965,12 +20968,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="200" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>21</v>
@@ -21057,12 +21060,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="201" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>57</v>
@@ -21149,12 +21152,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="202" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>21</v>
@@ -21241,12 +21244,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="203" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>77</v>
@@ -21333,12 +21336,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>21</v>
@@ -21425,12 +21428,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="205" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>103</v>
@@ -21517,12 +21520,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="206" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>62</v>
@@ -21609,12 +21612,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>21</v>
@@ -21701,15 +21704,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="208" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C208" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>286</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>22</v>
@@ -21793,12 +21796,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>85</v>
@@ -21885,12 +21888,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="210" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>21</v>
@@ -21977,12 +21980,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="211" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>21</v>
@@ -22069,15 +22072,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="212" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>22</v>
@@ -22161,12 +22164,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>21</v>
@@ -22253,12 +22256,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="214" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>107</v>
@@ -22345,12 +22348,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="215" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>127</v>
@@ -22437,12 +22440,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="216" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>21</v>
@@ -22529,12 +22532,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="217" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>95</v>
@@ -22621,12 +22624,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>127</v>
@@ -22713,12 +22716,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>21</v>
@@ -22805,12 +22808,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="220" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>21</v>
@@ -22897,12 +22900,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="221" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>21</v>
@@ -22989,12 +22992,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>21</v>
@@ -23081,15 +23084,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="223" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C223" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>45</v>
@@ -23173,15 +23176,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>45</v>
@@ -23265,12 +23268,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="225" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>85</v>
@@ -23357,12 +23360,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>57</v>
@@ -23449,12 +23452,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="227" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>90</v>
@@ -23541,12 +23544,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>21</v>
@@ -23633,15 +23636,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C229" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>75</v>
@@ -23725,12 +23728,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>21</v>
@@ -23817,12 +23820,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>107</v>
@@ -23909,12 +23912,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="232" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>21</v>
@@ -24001,12 +24004,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="233" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>21</v>
@@ -24093,12 +24096,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>21</v>
@@ -24185,12 +24188,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="235" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>21</v>
@@ -24277,12 +24280,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="236" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>21</v>
@@ -24369,15 +24372,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="237" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>37</v>
@@ -24461,12 +24464,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>21</v>
@@ -24553,12 +24556,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="239" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>57</v>
@@ -24645,12 +24648,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="240" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>21</v>
@@ -24737,12 +24740,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="241" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>107</v>
@@ -24829,12 +24832,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="242" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>21</v>
@@ -24921,12 +24924,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>21</v>
@@ -25013,12 +25016,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>21</v>
@@ -25105,12 +25108,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>21</v>
@@ -25197,12 +25200,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="246" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>21</v>
@@ -25289,12 +25292,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>21</v>
@@ -25381,12 +25384,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="248" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>21</v>
@@ -25473,15 +25476,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C249" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>331</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>69</v>
@@ -25565,12 +25568,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="250" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>21</v>
@@ -25657,12 +25660,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="251" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>21</v>
@@ -25749,12 +25752,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="252" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>21</v>
@@ -25841,12 +25844,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="253" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>21</v>
@@ -25933,12 +25936,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="254" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>21</v>
@@ -26025,12 +26028,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="255" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>21</v>
@@ -26117,12 +26120,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="256" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>57</v>
@@ -26209,7 +26212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -26301,12 +26304,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="258" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>21</v>
@@ -26393,12 +26396,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="259" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>21</v>
@@ -26485,12 +26488,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="260" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>95</v>
@@ -26577,12 +26580,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>72</v>
@@ -26669,12 +26672,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="262" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>21</v>
@@ -26761,12 +26764,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>21</v>
@@ -26853,12 +26856,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="264" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>57</v>
@@ -26945,12 +26948,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="265" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>103</v>
@@ -27037,7 +27040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="266" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -27129,12 +27132,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="267" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>21</v>
@@ -27221,15 +27224,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="268" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>45</v>
@@ -27313,12 +27316,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="269" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>85</v>
@@ -27405,12 +27408,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="270" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>178</v>
@@ -27497,12 +27500,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="271" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>40</v>
@@ -27589,15 +27592,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="272" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C272" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>353</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>22</v>
@@ -27681,12 +27684,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="273" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>127</v>
@@ -27773,12 +27776,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="274" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>62</v>
@@ -27865,12 +27868,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="275" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>21</v>
@@ -27957,12 +27960,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>21</v>
@@ -28049,12 +28052,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="277" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>77</v>
@@ -28141,12 +28144,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>21</v>
@@ -28233,12 +28236,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="279" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>62</v>
@@ -28325,15 +28328,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="280" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C280" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>45</v>
@@ -28417,12 +28420,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="281" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>95</v>
@@ -28509,12 +28512,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="282" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>40</v>
@@ -28601,15 +28604,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C283" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="D283" s="4" t="s">
         <v>22</v>
@@ -28693,12 +28696,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="284" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>21</v>
@@ -28785,15 +28788,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="285" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>37</v>
@@ -28877,12 +28880,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="286" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>57</v>
@@ -28969,12 +28972,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="287" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>21</v>
@@ -29061,12 +29064,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="288" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>199</v>
@@ -29153,15 +29156,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="289" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>69</v>
@@ -29245,12 +29248,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="290" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>21</v>
@@ -29337,12 +29340,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="291" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>62</v>
@@ -29429,15 +29432,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="292" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>69</v>
@@ -29521,12 +29524,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="293" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>77</v>
@@ -29613,15 +29616,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>22</v>
@@ -29705,12 +29708,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>21</v>
@@ -29797,12 +29800,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="296" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>57</v>
@@ -29889,12 +29892,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>21</v>
@@ -29981,12 +29984,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="298" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>21</v>
@@ -30073,12 +30076,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="299" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>95</v>
@@ -30165,12 +30168,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="300" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>21</v>
@@ -30257,12 +30260,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="301" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>21</v>
@@ -30349,12 +30352,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="302" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>40</v>
@@ -30441,12 +30444,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="303" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>62</v>
@@ -30533,12 +30536,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="304" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>178</v>
@@ -30625,12 +30628,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="305" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>85</v>
@@ -30717,12 +30720,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="306" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>21</v>
@@ -30809,12 +30812,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="307" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>21</v>
@@ -30901,12 +30904,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>57</v>
@@ -30993,12 +30996,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="309" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>72</v>
@@ -31085,12 +31088,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="310" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>21</v>
@@ -31177,12 +31180,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="311" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>21</v>
@@ -31269,12 +31272,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="312" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>21</v>
@@ -31361,12 +31364,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="313" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>62</v>
@@ -31453,12 +31456,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>21</v>
@@ -31545,15 +31548,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="315" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C315" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="C315" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>45</v>
@@ -31637,12 +31640,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="316" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>57</v>
@@ -31729,15 +31732,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="317" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>37</v>
@@ -31821,12 +31824,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="318" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>21</v>
@@ -31913,12 +31916,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="319" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>21</v>
@@ -32005,12 +32008,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>21</v>
@@ -32097,12 +32100,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>57</v>
@@ -32189,12 +32192,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>167</v>
@@ -32281,12 +32284,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="323" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>21</v>
@@ -32373,12 +32376,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>21</v>
@@ -32465,12 +32468,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="325" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>103</v>
@@ -32557,12 +32560,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="326" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>21</v>
@@ -32649,12 +32652,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>40</v>
@@ -32741,12 +32744,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="328" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>136</v>
@@ -32833,12 +32836,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="329" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>77</v>
@@ -32925,12 +32928,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="330" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>21</v>
@@ -33017,12 +33020,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="331" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>21</v>
@@ -33109,12 +33112,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>21</v>
@@ -33201,12 +33204,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="333" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>21</v>
@@ -33293,12 +33296,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="334" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>21</v>
@@ -33385,12 +33388,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>101</v>
@@ -33477,15 +33480,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="336" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C336" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="C336" s="4" t="s">
-        <v>420</v>
       </c>
       <c r="D336" s="4" t="s">
         <v>69</v>
@@ -33569,12 +33572,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="337" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>21</v>
@@ -33661,12 +33664,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="338" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>21</v>
@@ -33753,15 +33756,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="339" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>75</v>
@@ -33845,12 +33848,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="340" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>77</v>
@@ -33937,12 +33940,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="341" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>85</v>
@@ -34029,15 +34032,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D342" s="4" t="s">
         <v>69</v>
@@ -34121,12 +34124,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="343" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>21</v>
@@ -34213,12 +34216,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>21</v>
@@ -34305,12 +34308,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="345" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>21</v>
@@ -34397,12 +34400,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="346" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>21</v>
@@ -34489,12 +34492,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="347" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>21</v>
@@ -34581,12 +34584,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="348" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>21</v>
@@ -34673,12 +34676,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="349" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>21</v>
@@ -34765,15 +34768,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="350" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C350" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="C350" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>22</v>
@@ -34857,12 +34860,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>21</v>
@@ -34949,12 +34952,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="352" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>77</v>
@@ -35041,12 +35044,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>21</v>
@@ -35133,12 +35136,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="354" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>55</v>
@@ -35225,12 +35228,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>21</v>
@@ -35317,12 +35320,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="356" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>21</v>
@@ -35409,12 +35412,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="357" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>21</v>
@@ -35501,12 +35504,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="358" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>21</v>
@@ -35593,12 +35596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>21</v>
@@ -35685,12 +35688,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>77</v>
@@ -35777,12 +35780,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="361" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>127</v>
@@ -35869,15 +35872,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="362" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D362" s="4" t="s">
         <v>22</v>
@@ -35961,12 +35964,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>21</v>
@@ -36053,12 +36056,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="364" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>21</v>
@@ -36145,12 +36148,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="365" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>90</v>
@@ -36237,12 +36240,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="366" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>62</v>
@@ -36329,12 +36332,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="367" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>21</v>
@@ -36421,12 +36424,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>199</v>
@@ -36513,12 +36516,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="369" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>21</v>
@@ -36605,12 +36608,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="370" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>21</v>
@@ -36697,12 +36700,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="371" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>77</v>
@@ -36789,12 +36792,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="372" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>21</v>
@@ -36881,12 +36884,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="373" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>21</v>
@@ -36973,12 +36976,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="374" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>21</v>
@@ -37065,12 +37068,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="375" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>21</v>
@@ -37157,12 +37160,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="376" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>33</v>
@@ -37249,12 +37252,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="377" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>21</v>
@@ -37341,12 +37344,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="378" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>21</v>
@@ -37433,15 +37436,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="379" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>75</v>
@@ -37525,12 +37528,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>21</v>
@@ -37617,12 +37620,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="381" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>21</v>
@@ -37709,15 +37712,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="382" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>69</v>
@@ -37801,12 +37804,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>77</v>
@@ -37893,15 +37896,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="384" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>75</v>
@@ -37985,12 +37988,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="385" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>107</v>
@@ -38077,12 +38080,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="386" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>57</v>
@@ -38169,12 +38172,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>21</v>
@@ -38261,12 +38264,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>21</v>
@@ -38353,12 +38356,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>55</v>
@@ -38445,12 +38448,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>21</v>
@@ -38537,12 +38540,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="391" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>21</v>
@@ -38629,12 +38632,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="392" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>21</v>
@@ -38721,15 +38724,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="393" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>22</v>
@@ -38813,12 +38816,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>21</v>
@@ -38905,12 +38908,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>21</v>
@@ -38997,12 +39000,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>57</v>
@@ -39089,12 +39092,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="397" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>21</v>
@@ -39181,12 +39184,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="398" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>40</v>
@@ -39273,12 +39276,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>21</v>
@@ -39323,18 +39326,18 @@
       <c r="AC399" s="3"/>
       <c r="AD399" s="3"/>
     </row>
-    <row r="400" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D400" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E400" s="4" t="s">
         <v>58</v>
@@ -39415,12 +39418,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>127</v>
@@ -39507,12 +39510,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="402" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>77</v>
@@ -39599,12 +39602,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="403" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>21</v>
@@ -39691,12 +39694,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="404" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>21</v>
@@ -39783,12 +39786,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="405" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>90</v>
@@ -39875,12 +39878,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="406" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>57</v>
@@ -39967,15 +39970,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="407" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>25</v>
@@ -40059,12 +40062,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>57</v>
@@ -40151,12 +40154,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>21</v>
@@ -40243,12 +40246,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="410" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>85</v>
@@ -40335,12 +40338,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="411" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>21</v>
@@ -40427,12 +40430,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="412" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>21</v>
@@ -40519,15 +40522,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>69</v>
@@ -40611,12 +40614,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>21</v>
@@ -40703,12 +40706,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>77</v>
@@ -40795,12 +40798,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>21</v>
@@ -40887,12 +40890,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="417" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>40</v>
@@ -40979,15 +40982,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="418" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C418" s="4" t="s">
         <v>498</v>
-      </c>
-      <c r="C418" s="4" t="s">
-        <v>499</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>75</v>
@@ -41071,15 +41074,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>75</v>
@@ -41163,12 +41166,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>21</v>
@@ -41255,12 +41258,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="421" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>107</v>
@@ -41347,12 +41350,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="422" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>77</v>
@@ -41439,12 +41442,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>21</v>
@@ -41531,12 +41534,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>57</v>
@@ -41623,15 +41626,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>22</v>
@@ -41715,12 +41718,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>21</v>
@@ -41807,12 +41810,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="427" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>21</v>
@@ -41899,15 +41902,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C428" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="C428" s="4" t="s">
-        <v>509</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>22</v>
@@ -41991,12 +41994,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>55</v>
@@ -42083,12 +42086,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>21</v>
@@ -42175,15 +42178,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C431" s="4" t="s">
         <v>512</v>
-      </c>
-      <c r="C431" s="4" t="s">
-        <v>513</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>37</v>
@@ -42267,15 +42270,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="432" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>37</v>
@@ -42359,12 +42362,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="433" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>21</v>
@@ -42451,12 +42454,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>57</v>
@@ -42543,12 +42546,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="435" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>21</v>
@@ -42635,12 +42638,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="436" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>178</v>
@@ -42727,12 +42730,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="437" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>57</v>
@@ -42819,15 +42822,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D438" s="4" t="s">
         <v>75</v>
@@ -42911,12 +42914,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>21</v>
@@ -43003,12 +43006,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="440" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>199</v>
@@ -43095,12 +43098,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="441" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>21</v>
@@ -43187,12 +43190,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>21</v>
@@ -43279,15 +43282,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D443" s="4" t="s">
         <v>69</v>
@@ -43371,12 +43374,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>107</v>
@@ -43463,12 +43466,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>95</v>
@@ -43555,12 +43558,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="446" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>21</v>
@@ -43647,12 +43650,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>21</v>
@@ -43739,12 +43742,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="448" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>21</v>
@@ -43829,12 +43832,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>21</v>
@@ -43921,12 +43924,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>21</v>
@@ -44013,12 +44016,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>21</v>
@@ -44105,12 +44108,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="452" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>85</v>
@@ -44197,12 +44200,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="453" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>21</v>
@@ -44289,12 +44292,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="454" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>21</v>
@@ -44381,12 +44384,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>21</v>
@@ -44473,12 +44476,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>95</v>
@@ -44565,12 +44568,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="457" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>57</v>
@@ -44657,12 +44660,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="458" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>21</v>
@@ -44749,12 +44752,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>21</v>
@@ -44841,12 +44844,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>21</v>
@@ -44933,15 +44936,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="461" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C461" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="C461" s="4" t="s">
-        <v>543</v>
       </c>
       <c r="D461" s="4" t="s">
         <v>22</v>
@@ -45025,12 +45028,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>101</v>
@@ -45117,12 +45120,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>57</v>
@@ -45209,12 +45212,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>21</v>
@@ -45301,15 +45304,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D465" s="4" t="s">
         <v>69</v>
@@ -45393,12 +45396,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>21</v>
@@ -45485,12 +45488,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="467" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>21</v>
@@ -45577,12 +45580,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>21</v>
@@ -45669,12 +45672,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>21</v>
@@ -45761,12 +45764,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="470" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>21</v>
@@ -45853,12 +45856,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>21</v>
@@ -45945,12 +45948,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="472" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>95</v>
@@ -46037,12 +46040,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>21</v>
@@ -46129,12 +46132,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="474" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>21</v>
@@ -46221,12 +46224,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>57</v>
@@ -46313,12 +46316,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>21</v>
@@ -46405,12 +46408,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="477" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>107</v>
@@ -46497,12 +46500,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>167</v>
@@ -46589,12 +46592,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>21</v>
@@ -46681,12 +46684,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>21</v>
@@ -46773,12 +46776,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>85</v>
@@ -46865,12 +46868,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>21</v>
@@ -46957,12 +46960,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>21</v>
@@ -47049,12 +47052,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>21</v>
@@ -47141,12 +47144,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>21</v>
@@ -47233,12 +47236,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>57</v>
@@ -47325,15 +47328,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C487" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="C487" s="4" t="s">
-        <v>567</v>
       </c>
       <c r="D487" s="4" t="s">
         <v>22</v>
@@ -47417,12 +47420,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>21</v>
@@ -47509,15 +47512,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="489" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D489" s="4" t="s">
         <v>25</v>
@@ -47601,12 +47604,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>21</v>
@@ -47693,12 +47696,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>21</v>
@@ -47785,12 +47788,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>21</v>
@@ -47877,12 +47880,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>21</v>
@@ -47969,15 +47972,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="494" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D494" s="4" t="s">
         <v>45</v>
@@ -48061,12 +48064,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>21</v>
@@ -48153,12 +48156,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>21</v>
@@ -48245,12 +48248,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>21</v>
@@ -48337,12 +48340,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="498" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>21</v>
@@ -48429,12 +48432,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>107</v>
@@ -48521,15 +48524,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="500" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C500" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="C500" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="D500" s="4" t="s">
         <v>22</v>
@@ -48613,7 +48616,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="501" spans="1:30" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/spain/18/spain_passing.xlsx
+++ b/data/league_data/spain/18/spain_passing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C8CA5B-FF2F-9346-8F58-DC6F633EEFBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A5BD7E-B73C-D64D-8C3A-671AA26B187B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="580">
   <si>
     <t>Rk</t>
   </si>
@@ -1294,9 +1294,6 @@
     <t>Ousmane Dembélé</t>
   </si>
   <si>
-    <t>Naldo</t>
-  </si>
-  <si>
     <t>Yannick Carrasco</t>
   </si>
   <si>
@@ -1757,6 +1754,12 @@
   </si>
   <si>
     <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Naldo Gomes</t>
+  </si>
+  <si>
+    <t>Juanfran Moreno</t>
   </si>
 </sst>
 </file>
@@ -2626,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="AG59" sqref="AG59"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4505,7 +4508,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>66</v>
+        <v>579</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -9105,7 +9108,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>21</v>
@@ -17109,7 +17112,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>21</v>
@@ -33945,7 +33948,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>424</v>
+        <v>578</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>85</v>
@@ -34037,7 +34040,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>309</v>
@@ -34129,7 +34132,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>21</v>
@@ -34221,7 +34224,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>21</v>
@@ -34313,7 +34316,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>21</v>
@@ -34405,7 +34408,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>21</v>
@@ -34497,7 +34500,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>21</v>
@@ -34589,7 +34592,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>21</v>
@@ -34681,7 +34684,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>21</v>
@@ -34773,10 +34776,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C350" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="C350" s="4" t="s">
-        <v>434</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>22</v>
@@ -34865,7 +34868,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>21</v>
@@ -34957,7 +34960,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>77</v>
@@ -35049,7 +35052,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>21</v>
@@ -35141,7 +35144,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>55</v>
@@ -35233,7 +35236,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>21</v>
@@ -35325,7 +35328,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>21</v>
@@ -35417,7 +35420,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>21</v>
@@ -35509,7 +35512,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>21</v>
@@ -35601,7 +35604,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>21</v>
@@ -35693,7 +35696,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>77</v>
@@ -35785,7 +35788,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>127</v>
@@ -35877,7 +35880,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>361</v>
@@ -35969,7 +35972,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>21</v>
@@ -36061,7 +36064,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>21</v>
@@ -36153,7 +36156,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>90</v>
@@ -36245,7 +36248,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>62</v>
@@ -36337,7 +36340,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>21</v>
@@ -36429,7 +36432,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>199</v>
@@ -36521,7 +36524,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>21</v>
@@ -36613,7 +36616,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>21</v>
@@ -36705,7 +36708,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>77</v>
@@ -36797,7 +36800,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>21</v>
@@ -36889,7 +36892,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>21</v>
@@ -36981,7 +36984,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>21</v>
@@ -37073,7 +37076,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>21</v>
@@ -37165,7 +37168,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>33</v>
@@ -37257,7 +37260,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>21</v>
@@ -37349,7 +37352,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>21</v>
@@ -37441,7 +37444,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>330</v>
@@ -37533,7 +37536,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>21</v>
@@ -37625,7 +37628,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>21</v>
@@ -37717,7 +37720,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>309</v>
@@ -37809,7 +37812,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>77</v>
@@ -37901,7 +37904,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>233</v>
@@ -37993,7 +37996,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>107</v>
@@ -38085,7 +38088,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>57</v>
@@ -38177,7 +38180,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>21</v>
@@ -38269,7 +38272,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>21</v>
@@ -38361,7 +38364,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>55</v>
@@ -38453,7 +38456,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>21</v>
@@ -38545,7 +38548,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>21</v>
@@ -38637,7 +38640,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>21</v>
@@ -38821,7 +38824,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>21</v>
@@ -38913,7 +38916,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>21</v>
@@ -39005,7 +39008,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>57</v>
@@ -39097,7 +39100,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>21</v>
@@ -39189,7 +39192,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>40</v>
@@ -39281,7 +39284,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>21</v>
@@ -39331,7 +39334,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>21</v>
@@ -39423,7 +39426,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>127</v>
@@ -39515,7 +39518,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>77</v>
@@ -39699,7 +39702,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>21</v>
@@ -39791,7 +39794,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>90</v>
@@ -39883,7 +39886,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>57</v>
@@ -39975,7 +39978,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>290</v>
@@ -40067,7 +40070,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>57</v>
@@ -40159,7 +40162,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>21</v>
@@ -40251,7 +40254,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>85</v>
@@ -40343,7 +40346,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>21</v>
@@ -40435,7 +40438,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>21</v>
@@ -40527,7 +40530,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>361</v>
@@ -40619,7 +40622,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>21</v>
@@ -40711,7 +40714,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>77</v>
@@ -40803,7 +40806,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>21</v>
@@ -40895,7 +40898,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>40</v>
@@ -40987,10 +40990,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C418" s="4" t="s">
         <v>497</v>
-      </c>
-      <c r="C418" s="4" t="s">
-        <v>498</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>75</v>
@@ -41079,7 +41082,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>361</v>
@@ -41171,7 +41174,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>21</v>
@@ -41263,7 +41266,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>107</v>
@@ -41355,7 +41358,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>77</v>
@@ -41447,7 +41450,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>21</v>
@@ -41539,7 +41542,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>57</v>
@@ -41631,7 +41634,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>233</v>
@@ -41723,7 +41726,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>21</v>
@@ -41815,7 +41818,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>21</v>
@@ -41907,10 +41910,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C428" s="4" t="s">
         <v>507</v>
-      </c>
-      <c r="C428" s="4" t="s">
-        <v>508</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>22</v>
@@ -41999,7 +42002,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>55</v>
@@ -42091,7 +42094,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>21</v>
@@ -42183,10 +42186,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C431" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="C431" s="4" t="s">
-        <v>512</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>37</v>
@@ -42275,7 +42278,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>290</v>
@@ -42367,7 +42370,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>21</v>
@@ -42459,7 +42462,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>57</v>
@@ -42551,7 +42554,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>21</v>
@@ -42643,7 +42646,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>178</v>
@@ -42735,7 +42738,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>57</v>
@@ -42827,7 +42830,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>361</v>
@@ -42919,7 +42922,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>21</v>
@@ -43011,7 +43014,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>199</v>
@@ -43103,7 +43106,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>21</v>
@@ -43195,7 +43198,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>21</v>
@@ -43287,10 +43290,10 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D443" s="4" t="s">
         <v>69</v>
@@ -43379,7 +43382,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>107</v>
@@ -43471,7 +43474,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>95</v>
@@ -43563,7 +43566,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>21</v>
@@ -43747,7 +43750,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>21</v>
@@ -43837,7 +43840,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>21</v>
@@ -43929,7 +43932,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>21</v>
@@ -44021,7 +44024,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>21</v>
@@ -44113,7 +44116,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>85</v>
@@ -44205,7 +44208,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>21</v>
@@ -44297,7 +44300,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>21</v>
@@ -44389,7 +44392,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>21</v>
@@ -44481,7 +44484,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>95</v>
@@ -44573,7 +44576,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>57</v>
@@ -44665,7 +44668,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>21</v>
@@ -44757,7 +44760,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>21</v>
@@ -44849,7 +44852,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>21</v>
@@ -44941,10 +44944,10 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C461" s="4" t="s">
         <v>541</v>
-      </c>
-      <c r="C461" s="4" t="s">
-        <v>542</v>
       </c>
       <c r="D461" s="4" t="s">
         <v>22</v>
@@ -45125,7 +45128,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>57</v>
@@ -45217,7 +45220,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>21</v>
@@ -45309,10 +45312,10 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D465" s="4" t="s">
         <v>69</v>
@@ -45401,7 +45404,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>21</v>
@@ -45493,7 +45496,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>21</v>
@@ -45585,7 +45588,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>21</v>
@@ -45677,7 +45680,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>21</v>
@@ -45769,7 +45772,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>21</v>
@@ -45861,7 +45864,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>21</v>
@@ -45953,7 +45956,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>95</v>
@@ -46045,7 +46048,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>21</v>
@@ -46137,7 +46140,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>21</v>
@@ -46229,7 +46232,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>57</v>
@@ -46321,7 +46324,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>21</v>
@@ -46413,7 +46416,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>107</v>
@@ -46505,7 +46508,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>167</v>
@@ -46597,7 +46600,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>21</v>
@@ -46689,7 +46692,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>21</v>
@@ -46781,7 +46784,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>85</v>
@@ -46873,7 +46876,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>21</v>
@@ -46965,7 +46968,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>21</v>
@@ -47057,7 +47060,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>21</v>
@@ -47149,7 +47152,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>21</v>
@@ -47241,7 +47244,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>57</v>
@@ -47333,10 +47336,10 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C487" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="C487" s="4" t="s">
-        <v>566</v>
       </c>
       <c r="D487" s="4" t="s">
         <v>22</v>
@@ -47425,7 +47428,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>21</v>
@@ -47517,7 +47520,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>361</v>
@@ -47609,7 +47612,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>21</v>
@@ -47701,7 +47704,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>21</v>
@@ -47793,7 +47796,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>21</v>
@@ -47885,7 +47888,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>21</v>
@@ -47977,10 +47980,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D494" s="4" t="s">
         <v>45</v>
@@ -48069,7 +48072,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>21</v>
@@ -48161,7 +48164,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>21</v>
@@ -48253,7 +48256,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>21</v>
@@ -48345,7 +48348,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>21</v>
@@ -48437,7 +48440,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>107</v>
